--- a/tabular/contributed/190708 GZR TABLE.xlsx
+++ b/tabular/contributed/190708 GZR TABLE.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="1940" windowWidth="39920" windowHeight="25320"/>
+    <workbookView xWindow="9140" yWindow="1920" windowWidth="39920" windowHeight="25320"/>
   </bookViews>
   <sheets>
     <sheet name="GRAZOPREVIR" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRAZOPREVIR!$B$1:$R$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRAZOPREVIR!$B$1:$R$185</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="178">
   <si>
     <t>Weight of evidence</t>
   </si>
@@ -1066,11 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R234"/>
+  <dimension ref="A1:R233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2410,7 +2410,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>20</v>
@@ -2439,7 +2439,7 @@
       <c r="N31" s="20">
         <v>253</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="20">
         <v>25467591</v>
       </c>
       <c r="P31" s="20"/>
@@ -2454,13 +2454,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="16" t="s">
@@ -2498,13 +2498,13 @@
         <v>29</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="16" t="s">
@@ -2542,13 +2542,13 @@
         <v>29</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="16" t="s">
@@ -2586,7 +2586,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>21</v>
@@ -2630,7 +2630,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>21</v>
@@ -2674,7 +2674,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>21</v>
@@ -2703,7 +2703,7 @@
       <c r="N37" s="20">
         <v>253</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37">
         <v>25467591</v>
       </c>
       <c r="P37" s="20"/>
@@ -2718,7 +2718,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>21</v>
@@ -2762,7 +2762,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>21</v>
@@ -2806,7 +2806,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>21</v>
@@ -2850,7 +2850,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>21</v>
@@ -2887,14 +2887,14 @@
       <c r="R41" s="20"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="18">
-        <v>3</v>
+      <c r="A42" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>21</v>
@@ -2906,7 +2906,7 @@
       <c r="G42" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="20" t="s">
         <v>1</v>
       </c>
       <c r="I42" s="20"/>
@@ -2914,16 +2914,14 @@
         <v>22</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L42" s="20"/>
-      <c r="M42" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="M42" s="20"/>
       <c r="N42" s="20">
         <v>253</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="20">
         <v>25467591</v>
       </c>
       <c r="P42" s="20"/>
@@ -2938,7 +2936,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>21</v>
@@ -2980,7 +2978,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>21</v>
@@ -2999,7 +2997,7 @@
       <c r="J44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="K44" s="10" t="s">
         <v>163</v>
       </c>
       <c r="L44" s="20"/>
@@ -3007,7 +3005,7 @@
       <c r="N44" s="20">
         <v>253</v>
       </c>
-      <c r="O44" s="20">
+      <c r="O44">
         <v>25467591</v>
       </c>
       <c r="P44" s="20"/>
@@ -3022,7 +3020,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>21</v>
@@ -3049,7 +3047,7 @@
       <c r="N45" s="20">
         <v>253</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="20">
         <v>25467591</v>
       </c>
       <c r="P45" s="20"/>
@@ -3064,13 +3062,13 @@
         <v>29</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="16" t="s">
@@ -3106,13 +3104,13 @@
         <v>29</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="16" t="s">
@@ -3133,7 +3131,7 @@
       <c r="N47" s="20">
         <v>253</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47">
         <v>25467591</v>
       </c>
       <c r="P47" s="20"/>
@@ -3148,13 +3146,13 @@
         <v>29</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="16" t="s">
@@ -3190,13 +3188,13 @@
         <v>29</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="16" t="s">
@@ -3225,20 +3223,20 @@
       <c r="R49" s="20"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>83</v>
+      <c r="C50" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="16" t="s">
@@ -3264,23 +3262,23 @@
       </c>
       <c r="P50" s="20"/>
       <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
+      <c r="R50"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>84</v>
+      <c r="C51" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="16" t="s">
@@ -3306,7 +3304,7 @@
       </c>
       <c r="P51" s="20"/>
       <c r="Q51" s="20"/>
-      <c r="R51"/>
+      <c r="R51" s="20"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
@@ -3316,7 +3314,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>21</v>
@@ -3358,7 +3356,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>21</v>
@@ -3394,89 +3392,93 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="20"/>
+        <v>118</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="23"/>
       <c r="G54" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20">
-        <v>253</v>
-      </c>
-      <c r="O54">
-        <v>25467591</v>
-      </c>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
+      <c r="H54" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="24"/>
+      <c r="J54" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N54" s="23">
+        <v>82</v>
+      </c>
+      <c r="O54" s="20">
+        <v>30957170</v>
+      </c>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="23"/>
+        <v>80</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="G55" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I55" s="24"/>
-      <c r="J55" s="18" t="s">
-        <v>129</v>
+      <c r="H55" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="20">
+        <v>2</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N55" s="23">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="O55" s="20">
-        <v>30957170</v>
-      </c>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
+        <v>26926625</v>
+      </c>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -3486,7 +3488,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>2</v>
@@ -3504,7 +3506,7 @@
         <v>5</v>
       </c>
       <c r="I56" s="20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J56" s="17" t="s">
         <v>2</v>
@@ -3517,7 +3519,7 @@
       <c r="N56" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56">
         <v>26926625</v>
       </c>
       <c r="P56" s="20"/>
@@ -3532,7 +3534,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>2</v>
@@ -3550,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="I57" s="20">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="J57" s="17" t="s">
         <v>2</v>
@@ -3571,19 +3573,19 @@
       <c r="R57" s="20"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="17" t="s">
+      <c r="C58" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="18" t="s">
@@ -3592,44 +3594,44 @@
       <c r="G58" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H58" s="20" t="s">
+      <c r="H58" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="20">
-        <v>3</v>
-      </c>
-      <c r="J58" s="17" t="s">
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="J58" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K58" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
+      <c r="L58"/>
+      <c r="M58"/>
       <c r="N58" s="15" t="s">
         <v>2</v>
       </c>
       <c r="O58">
         <v>26926625</v>
       </c>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="C59" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="18" t="s">
@@ -3638,29 +3640,29 @@
       <c r="G59" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I59">
-        <v>6</v>
-      </c>
-      <c r="J59" s="9" t="s">
+      <c r="I59" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="J59" s="17" t="s">
         <v>2</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L59"/>
-      <c r="M59"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
       <c r="N59" s="15" t="s">
         <v>2</v>
       </c>
       <c r="O59">
         <v>26926625</v>
       </c>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
@@ -3670,7 +3672,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>2</v>
@@ -3688,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="20">
-        <v>2.5</v>
+        <v>114</v>
       </c>
       <c r="J60" s="17" t="s">
         <v>2</v>
@@ -3709,19 +3711,19 @@
       <c r="R60" s="20"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="17" t="s">
+      <c r="D61" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="18" t="s">
@@ -3730,29 +3732,29 @@
       <c r="G61" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="20" t="s">
+      <c r="H61" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="20">
-        <v>114</v>
-      </c>
-      <c r="J61" s="17" t="s">
+      <c r="I61">
+        <v>273</v>
+      </c>
+      <c r="J61" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K61" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
+      <c r="L61"/>
+      <c r="M61"/>
       <c r="N61" s="15" t="s">
         <v>2</v>
       </c>
       <c r="O61">
         <v>26926625</v>
       </c>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="26" t="s">
@@ -3762,7 +3764,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>2</v>
@@ -3780,7 +3782,7 @@
         <v>5</v>
       </c>
       <c r="I62">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>2</v>
@@ -3808,7 +3810,7 @@
         <v>29</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>2</v>
@@ -3826,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="I63">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>2</v>
@@ -3847,19 +3849,19 @@
       <c r="R63"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="9" t="s">
+      <c r="C64" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="18" t="s">
@@ -3868,29 +3870,29 @@
       <c r="G64" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I64">
-        <v>153</v>
-      </c>
-      <c r="J64" s="9" t="s">
+      <c r="I64" s="20">
+        <v>27</v>
+      </c>
+      <c r="J64" s="17" t="s">
         <v>2</v>
       </c>
       <c r="K64" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L64"/>
-      <c r="M64"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
       <c r="N64" s="15" t="s">
         <v>2</v>
       </c>
       <c r="O64">
         <v>26926625</v>
       </c>
-      <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
@@ -3900,7 +3902,7 @@
         <v>29</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>2</v>
@@ -3918,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="I65" s="20">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="J65" s="17" t="s">
         <v>2</v>
@@ -3946,7 +3948,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>2</v>
@@ -3964,7 +3966,7 @@
         <v>5</v>
       </c>
       <c r="I66" s="20">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="J66" s="17" t="s">
         <v>2</v>
@@ -3992,7 +3994,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>2</v>
@@ -4010,7 +4012,7 @@
         <v>5</v>
       </c>
       <c r="I67" s="20">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J67" s="17" t="s">
         <v>2</v>
@@ -4038,7 +4040,7 @@
         <v>29</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>2</v>
@@ -4056,7 +4058,7 @@
         <v>5</v>
       </c>
       <c r="I68" s="20">
-        <v>1.1000000000000001</v>
+        <v>46</v>
       </c>
       <c r="J68" s="17" t="s">
         <v>2</v>
@@ -4084,7 +4086,7 @@
         <v>29</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>2</v>
@@ -4102,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="I69" s="20">
-        <v>46</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J69" s="17" t="s">
         <v>2</v>
@@ -4130,85 +4132,81 @@
         <v>29</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F70" s="20"/>
       <c r="G70" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H70" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I70" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>2</v>
+      <c r="H70" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
-      <c r="N70" s="15" t="s">
-        <v>2</v>
+      <c r="N70" s="20">
+        <v>26</v>
       </c>
       <c r="O70">
-        <v>26926625</v>
+        <v>27291249</v>
       </c>
       <c r="P70" s="20"/>
       <c r="Q70" s="20"/>
       <c r="R70" s="20"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="20"/>
+      <c r="C71" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71"/>
       <c r="G71" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H71" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20" t="s">
+      <c r="I71"/>
+      <c r="J71" t="s">
         <v>110</v>
       </c>
       <c r="K71" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20">
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71">
         <v>26</v>
       </c>
       <c r="O71">
         <v>27291249</v>
       </c>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="26" t="s">
@@ -4218,7 +4216,7 @@
         <v>29</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>21</v>
@@ -4253,88 +4251,88 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73"/>
+      <c r="C73" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="20"/>
       <c r="G73" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H73" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I73"/>
-      <c r="J73" t="s">
-        <v>110</v>
+      <c r="I73" s="20"/>
+      <c r="J73" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="K73" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73">
-        <v>26</v>
+        <v>93</v>
+      </c>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20">
+        <v>113</v>
       </c>
       <c r="O73">
-        <v>27291249</v>
-      </c>
-      <c r="P73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
+        <v>30127629</v>
+      </c>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="20"/>
+      <c r="C74" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74"/>
       <c r="G74" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H74" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I74" s="20"/>
+      <c r="I74"/>
       <c r="J74" s="15" t="s">
         <v>166</v>
       </c>
       <c r="K74" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
+      <c r="L74"/>
+      <c r="M74"/>
       <c r="N74" s="20">
         <v>113</v>
       </c>
       <c r="O74">
         <v>30127629</v>
       </c>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="26" t="s">
@@ -4344,7 +4342,7 @@
         <v>29</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>21</v>
@@ -4386,7 +4384,7 @@
         <v>29</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>21</v>
@@ -4410,7 +4408,7 @@
       </c>
       <c r="L76"/>
       <c r="M76"/>
-      <c r="N76" s="20">
+      <c r="N76">
         <v>113</v>
       </c>
       <c r="O76">
@@ -4428,7 +4426,7 @@
         <v>29</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>21</v>
@@ -4452,7 +4450,7 @@
       </c>
       <c r="L77"/>
       <c r="M77"/>
-      <c r="N77">
+      <c r="N77" s="20">
         <v>113</v>
       </c>
       <c r="O77">
@@ -4512,13 +4510,13 @@
         <v>29</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="16" t="s">
@@ -4554,7 +4552,7 @@
         <v>29</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>20</v>
@@ -4578,7 +4576,7 @@
       </c>
       <c r="L80"/>
       <c r="M80"/>
-      <c r="N80" s="20">
+      <c r="N80">
         <v>113</v>
       </c>
       <c r="O80">
@@ -4596,7 +4594,7 @@
         <v>29</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>20</v>
@@ -4638,13 +4636,13 @@
         <v>29</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="16" t="s">
@@ -4680,7 +4678,7 @@
         <v>29</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>21</v>
@@ -4722,13 +4720,13 @@
         <v>29</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>20</v>
+        <v>67</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="16" t="s">
@@ -4764,13 +4762,13 @@
         <v>29</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>21</v>
+        <v>72</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="16" t="s">
@@ -4806,7 +4804,7 @@
         <v>29</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>21</v>
@@ -4848,7 +4846,7 @@
         <v>29</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>21</v>
@@ -4890,7 +4888,7 @@
         <v>29</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>21</v>
@@ -4932,7 +4930,7 @@
         <v>29</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>21</v>
@@ -4974,7 +4972,7 @@
         <v>29</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>21</v>
@@ -5009,88 +5007,88 @@
       <c r="R90"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
-        <v>4</v>
+      <c r="A91" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91"/>
+      <c r="C91" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="20"/>
       <c r="G91" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H91" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I91"/>
+      <c r="I91" s="20"/>
       <c r="J91" s="15" t="s">
         <v>166</v>
       </c>
       <c r="K91" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91">
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20">
         <v>113</v>
       </c>
       <c r="O91">
         <v>30127629</v>
       </c>
-      <c r="P91"/>
-      <c r="Q91"/>
-      <c r="R91"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C92" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F92" s="20"/>
+      <c r="C92" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92"/>
       <c r="G92" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H92" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I92" s="20"/>
+      <c r="I92"/>
       <c r="J92" s="15" t="s">
         <v>166</v>
       </c>
       <c r="K92" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
+      <c r="L92"/>
+      <c r="M92"/>
       <c r="N92" s="20">
         <v>113</v>
       </c>
       <c r="O92">
         <v>30127629</v>
       </c>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="20"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="26" t="s">
@@ -5100,7 +5098,7 @@
         <v>29</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>21</v>
@@ -5119,12 +5117,12 @@
       <c r="J93" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="K93" s="21" t="s">
+      <c r="K93" s="14" t="s">
         <v>93</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
-      <c r="N93" s="20">
+      <c r="N93" s="19">
         <v>113</v>
       </c>
       <c r="O93">
@@ -5142,13 +5140,13 @@
         <v>29</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>20</v>
+        <v>98</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="16" t="s">
@@ -5184,13 +5182,13 @@
         <v>29</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>21</v>
+        <v>91</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="16" t="s">
@@ -5219,46 +5217,46 @@
       <c r="R95"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" s="26" t="s">
-        <v>3</v>
+      <c r="A96" s="18">
+        <v>4</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C96" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96"/>
+      <c r="C96" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="20"/>
       <c r="G96" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H96" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I96"/>
-      <c r="J96" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="K96" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L96"/>
-      <c r="M96"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K96" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
       <c r="N96" s="19">
-        <v>113</v>
+        <v>835</v>
       </c>
       <c r="O96">
-        <v>30127629</v>
-      </c>
-      <c r="P96"/>
-      <c r="Q96"/>
-      <c r="R96"/>
+        <v>27773808</v>
+      </c>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
@@ -5268,7 +5266,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>21</v>
@@ -5303,46 +5301,46 @@
       <c r="R97" s="20"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98" s="18">
+      <c r="A98" s="26">
         <v>4</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" s="17" t="s">
+      <c r="C98" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F98" s="20"/>
       <c r="G98" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H98" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I98" s="20"/>
+      <c r="H98" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98"/>
       <c r="J98" s="17" t="s">
         <v>168</v>
       </c>
       <c r="K98" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
+      <c r="L98"/>
+      <c r="M98"/>
       <c r="N98" s="19">
         <v>835</v>
       </c>
       <c r="O98">
         <v>27773808</v>
       </c>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="20"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="26">
@@ -5352,7 +5350,7 @@
         <v>29</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>21</v>
@@ -5394,7 +5392,7 @@
         <v>29</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>21</v>
@@ -5402,7 +5400,7 @@
       <c r="E100" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F100" s="20"/>
+      <c r="F100"/>
       <c r="G100" s="16" t="s">
         <v>30</v>
       </c>
@@ -5436,7 +5434,7 @@
         <v>29</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>21</v>
@@ -5478,7 +5476,7 @@
         <v>29</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>21</v>
@@ -5520,7 +5518,7 @@
         <v>29</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>21</v>
@@ -5562,7 +5560,7 @@
         <v>29</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>21</v>
@@ -5604,7 +5602,7 @@
         <v>29</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>21</v>
@@ -5646,7 +5644,7 @@
         <v>29</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>21</v>
@@ -5688,7 +5686,7 @@
         <v>29</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>21</v>
@@ -5723,46 +5721,46 @@
       <c r="R107"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" s="26">
+      <c r="A108" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F108"/>
+      <c r="C108" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="20"/>
       <c r="G108" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H108" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I108"/>
+      <c r="H108" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I108" s="20"/>
       <c r="J108" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="K108" s="22" t="s">
+      <c r="K108" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108" s="19">
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20">
         <v>835</v>
       </c>
       <c r="O108">
         <v>27773808</v>
       </c>
-      <c r="P108"/>
-      <c r="Q108"/>
-      <c r="R108"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="20"/>
+      <c r="R108" s="20"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
@@ -5772,13 +5770,13 @@
         <v>29</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="16" t="s">
@@ -5814,13 +5812,13 @@
         <v>29</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="16" t="s">
@@ -5849,46 +5847,46 @@
       <c r="R110" s="20"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E111" s="17" t="s">
+      <c r="C111" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H111" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I111" s="20"/>
+      <c r="H111" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I111"/>
       <c r="J111" s="17" t="s">
         <v>168</v>
       </c>
       <c r="K111" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="L111" s="20"/>
-      <c r="M111" s="20"/>
+      <c r="L111"/>
+      <c r="M111"/>
       <c r="N111" s="20">
         <v>835</v>
       </c>
       <c r="O111">
         <v>27773808</v>
       </c>
-      <c r="P111" s="20"/>
-      <c r="Q111" s="20"/>
-      <c r="R111" s="20"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="26" t="s">
@@ -5901,7 +5899,7 @@
         <v>59</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>20</v>
@@ -5918,11 +5916,11 @@
         <v>168</v>
       </c>
       <c r="K112" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L112"/>
       <c r="M112"/>
-      <c r="N112" s="20">
+      <c r="N112">
         <v>835</v>
       </c>
       <c r="O112">
@@ -5940,15 +5938,15 @@
         <v>29</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F113" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F113"/>
       <c r="G113" s="16" t="s">
         <v>30</v>
       </c>
@@ -5960,7 +5958,7 @@
         <v>168</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
@@ -5982,13 +5980,13 @@
         <v>29</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="16" t="s">
@@ -6006,7 +6004,7 @@
       </c>
       <c r="L114"/>
       <c r="M114"/>
-      <c r="N114">
+      <c r="N114" s="20">
         <v>835</v>
       </c>
       <c r="O114">
@@ -6024,7 +6022,7 @@
         <v>29</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>21</v>
@@ -6066,7 +6064,7 @@
         <v>29</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>21</v>
@@ -6090,7 +6088,7 @@
       </c>
       <c r="L116"/>
       <c r="M116"/>
-      <c r="N116" s="20">
+      <c r="N116">
         <v>835</v>
       </c>
       <c r="O116">
@@ -6108,7 +6106,7 @@
         <v>29</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>21</v>
@@ -6170,11 +6168,13 @@
         <v>168</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L118"/>
-      <c r="M118"/>
-      <c r="N118">
+      <c r="M118" t="s">
+        <v>133</v>
+      </c>
+      <c r="N118" s="20">
         <v>835</v>
       </c>
       <c r="O118">
@@ -6192,7 +6192,7 @@
         <v>29</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>21</v>
@@ -6212,13 +6212,11 @@
         <v>168</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L119"/>
-      <c r="M119" t="s">
-        <v>133</v>
-      </c>
-      <c r="N119" s="20">
+      <c r="M119"/>
+      <c r="N119">
         <v>835</v>
       </c>
       <c r="O119">
@@ -6236,7 +6234,7 @@
         <v>29</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>21</v>
@@ -6260,7 +6258,7 @@
       </c>
       <c r="L120"/>
       <c r="M120"/>
-      <c r="N120">
+      <c r="N120" s="20">
         <v>835</v>
       </c>
       <c r="O120">
@@ -6278,7 +6276,7 @@
         <v>29</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>21</v>
@@ -6320,7 +6318,7 @@
         <v>29</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>21</v>
@@ -6362,10 +6360,10 @@
         <v>29</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>20</v>
@@ -6404,10 +6402,10 @@
         <v>29</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>20</v>
@@ -6446,10 +6444,10 @@
         <v>29</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>20</v>
@@ -6488,10 +6486,10 @@
         <v>29</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>20</v>
@@ -6507,7 +6505,7 @@
       <c r="J126" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="K126" s="10" t="s">
+      <c r="K126" s="17" t="s">
         <v>163</v>
       </c>
       <c r="L126"/>
@@ -6530,7 +6528,7 @@
         <v>29</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>21</v>
@@ -6572,13 +6570,13 @@
         <v>29</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="16" t="s">
@@ -6592,7 +6590,7 @@
         <v>168</v>
       </c>
       <c r="K128" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L128"/>
       <c r="M128"/>
@@ -6614,13 +6612,13 @@
         <v>29</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="16" t="s">
@@ -6634,7 +6632,7 @@
         <v>168</v>
       </c>
       <c r="K129" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L129"/>
       <c r="M129"/>
@@ -6656,10 +6654,10 @@
         <v>29</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>20</v>
@@ -6701,10 +6699,10 @@
         <v>41</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F131"/>
       <c r="G131" s="16" t="s">
@@ -6718,7 +6716,7 @@
         <v>168</v>
       </c>
       <c r="K131" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L131"/>
       <c r="M131"/>
@@ -6740,13 +6738,13 @@
         <v>29</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F132"/>
       <c r="G132" s="16" t="s">
@@ -6782,10 +6780,10 @@
         <v>29</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>20</v>
@@ -6802,7 +6800,7 @@
         <v>168</v>
       </c>
       <c r="K133" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L133"/>
       <c r="M133"/>
@@ -6824,10 +6822,10 @@
         <v>29</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>20</v>
@@ -6844,7 +6842,7 @@
         <v>168</v>
       </c>
       <c r="K134" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L134"/>
       <c r="M134"/>
@@ -6866,7 +6864,7 @@
         <v>29</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>21</v>
@@ -6886,7 +6884,7 @@
         <v>168</v>
       </c>
       <c r="K135" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L135"/>
       <c r="M135"/>
@@ -6908,7 +6906,7 @@
         <v>29</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>21</v>
@@ -6950,7 +6948,7 @@
         <v>29</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>21</v>
@@ -6970,11 +6968,11 @@
         <v>168</v>
       </c>
       <c r="K137" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L137"/>
       <c r="M137"/>
-      <c r="N137" s="20">
+      <c r="N137">
         <v>835</v>
       </c>
       <c r="O137">
@@ -6992,13 +6990,13 @@
         <v>29</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F138"/>
       <c r="G138" s="16" t="s">
@@ -7034,7 +7032,7 @@
         <v>29</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>20</v>
@@ -7058,7 +7056,7 @@
       </c>
       <c r="L139"/>
       <c r="M139"/>
-      <c r="N139">
+      <c r="N139" s="20">
         <v>835</v>
       </c>
       <c r="O139">
@@ -7100,7 +7098,7 @@
       </c>
       <c r="L140"/>
       <c r="M140"/>
-      <c r="N140" s="20">
+      <c r="N140">
         <v>835</v>
       </c>
       <c r="O140">
@@ -7118,13 +7116,13 @@
         <v>29</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F141"/>
       <c r="G141" s="16" t="s">
@@ -7160,13 +7158,13 @@
         <v>29</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F142"/>
       <c r="G142" s="16" t="s">
@@ -7202,13 +7200,13 @@
         <v>29</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F143"/>
       <c r="G143" s="16" t="s">
@@ -7244,7 +7242,7 @@
         <v>29</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>21</v>
@@ -7280,44 +7278,44 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F145"/>
+        <v>57</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="20"/>
       <c r="G145" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H145" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I145"/>
+      <c r="H145" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I145" s="20"/>
       <c r="J145" s="17" t="s">
         <v>168</v>
       </c>
       <c r="K145" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="L145"/>
-      <c r="M145"/>
-      <c r="N145">
+        <v>163</v>
+      </c>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="20">
         <v>835</v>
       </c>
       <c r="O145">
         <v>27773808</v>
       </c>
-      <c r="P145"/>
-      <c r="Q145"/>
+      <c r="P145" s="20"/>
+      <c r="Q145" s="20"/>
       <c r="R145"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
@@ -7328,38 +7326,38 @@
         <v>29</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E146" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F146" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146"/>
       <c r="G146" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H146" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I146" s="20"/>
+      <c r="H146" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I146"/>
       <c r="J146" s="17" t="s">
         <v>168</v>
       </c>
       <c r="K146" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="L146" s="20"/>
-      <c r="M146" s="20"/>
-      <c r="N146" s="20">
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146">
         <v>835</v>
       </c>
       <c r="O146">
         <v>27773808</v>
       </c>
-      <c r="P146" s="20"/>
-      <c r="Q146" s="20"/>
+      <c r="P146"/>
+      <c r="Q146"/>
       <c r="R146"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
@@ -7370,7 +7368,7 @@
         <v>29</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>21</v>
@@ -7412,7 +7410,7 @@
         <v>29</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>21</v>
@@ -7454,7 +7452,7 @@
         <v>29</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>21</v>
@@ -7496,13 +7494,13 @@
         <v>29</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F150"/>
       <c r="G150" s="16" t="s">
@@ -7538,13 +7536,13 @@
         <v>29</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F151"/>
       <c r="G151" s="16" t="s">
@@ -7580,7 +7578,7 @@
         <v>29</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>21</v>
@@ -7622,13 +7620,13 @@
         <v>29</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F153"/>
       <c r="G153" s="16" t="s">
@@ -7646,11 +7644,11 @@
       </c>
       <c r="L153"/>
       <c r="M153"/>
-      <c r="N153">
-        <v>835</v>
+      <c r="N153" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="O153">
-        <v>27773808</v>
+        <v>28193518</v>
       </c>
       <c r="P153"/>
       <c r="Q153"/>
@@ -7664,13 +7662,13 @@
         <v>29</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F154"/>
       <c r="G154" s="16" t="s">
@@ -7700,13 +7698,13 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="26" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>21</v>
@@ -7748,7 +7746,7 @@
         <v>29</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>21</v>
@@ -7790,7 +7788,7 @@
         <v>29</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>21</v>
@@ -7832,7 +7830,7 @@
         <v>29</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>21</v>
@@ -7874,7 +7872,7 @@
         <v>29</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>21</v>
@@ -7916,7 +7914,7 @@
         <v>29</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>21</v>
@@ -7951,14 +7949,14 @@
       <c r="R160"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A161" s="26" t="s">
-        <v>23</v>
+      <c r="A161" s="26">
+        <v>4</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>21</v>
@@ -7966,7 +7964,7 @@
       <c r="E161" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F161"/>
+      <c r="F161" s="20"/>
       <c r="G161" s="16" t="s">
         <v>30</v>
       </c>
@@ -7974,19 +7972,19 @@
         <v>1</v>
       </c>
       <c r="I161"/>
-      <c r="J161" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="K161" s="17" t="s">
-        <v>163</v>
+      <c r="J161" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="L161"/>
       <c r="M161"/>
-      <c r="N161" s="20" t="s">
-        <v>140</v>
+      <c r="N161">
+        <v>155</v>
       </c>
       <c r="O161">
-        <v>28193518</v>
+        <v>29461687</v>
       </c>
       <c r="P161"/>
       <c r="Q161"/>
@@ -8000,7 +7998,7 @@
         <v>29</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>21</v>
@@ -8019,7 +8017,7 @@
       <c r="J162" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="K162" s="9" t="s">
+      <c r="K162" s="17" t="s">
         <v>161</v>
       </c>
       <c r="L162"/>
@@ -8042,7 +8040,7 @@
         <v>29</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>21</v>
@@ -8050,7 +8048,7 @@
       <c r="E163" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F163" s="20"/>
+      <c r="F163"/>
       <c r="G163" s="16" t="s">
         <v>30</v>
       </c>
@@ -8084,7 +8082,7 @@
         <v>29</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>21</v>
@@ -8093,7 +8091,7 @@
         <v>20</v>
       </c>
       <c r="F164"/>
-      <c r="G164" s="16" t="s">
+      <c r="G164" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H164" s="9" t="s">
@@ -8126,13 +8124,13 @@
         <v>29</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F165"/>
       <c r="G165" s="12" t="s">
@@ -8146,7 +8144,7 @@
         <v>169</v>
       </c>
       <c r="K165" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L165"/>
       <c r="M165"/>
@@ -8168,13 +8166,13 @@
         <v>29</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F166"/>
       <c r="G166" s="12" t="s">
@@ -8188,7 +8186,7 @@
         <v>169</v>
       </c>
       <c r="K166" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L166"/>
       <c r="M166"/>
@@ -8203,46 +8201,50 @@
       <c r="R166"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A167" s="26">
+      <c r="A167" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C167" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F167"/>
-      <c r="G167" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H167" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I167"/>
-      <c r="J167" s="9" t="s">
-        <v>169</v>
+      <c r="C167" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F167" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I167" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="J167" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="K167" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="L167"/>
-      <c r="M167"/>
-      <c r="N167">
-        <v>155</v>
-      </c>
-      <c r="O167">
-        <v>29461687</v>
-      </c>
-      <c r="P167"/>
-      <c r="Q167"/>
-      <c r="R167"/>
+        <v>2</v>
+      </c>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O167" s="20">
+        <v>28228479</v>
+      </c>
+      <c r="P167" s="20"/>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="18" t="s">
@@ -8252,7 +8254,7 @@
         <v>29</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D168" s="18" t="s">
         <v>2</v>
@@ -8270,7 +8272,7 @@
         <v>5</v>
       </c>
       <c r="I168" s="20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J168" s="17" t="s">
         <v>2</v>
@@ -8283,7 +8285,7 @@
       <c r="N168" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O168" s="20">
+      <c r="O168">
         <v>28228479</v>
       </c>
       <c r="P168" s="20"/>
@@ -8291,32 +8293,32 @@
       <c r="R168" s="20"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C169" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D169" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E169" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F169" s="20" t="s">
+      <c r="C169" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F169" t="s">
         <v>2</v>
       </c>
       <c r="G169" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H169" s="17" t="s">
+      <c r="H169" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I169" s="20">
-        <v>1</v>
+      <c r="I169">
+        <v>3.3</v>
       </c>
       <c r="J169" s="17" t="s">
         <v>2</v>
@@ -8324,17 +8326,17 @@
       <c r="K169" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L169" s="20"/>
-      <c r="M169" s="20"/>
+      <c r="L169"/>
+      <c r="M169"/>
       <c r="N169" s="17" t="s">
         <v>2</v>
       </c>
       <c r="O169">
         <v>28228479</v>
       </c>
-      <c r="P169" s="20"/>
-      <c r="Q169" s="20"/>
-      <c r="R169" s="20"/>
+      <c r="P169"/>
+      <c r="Q169"/>
+      <c r="R169"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="26" t="s">
@@ -8362,7 +8364,7 @@
         <v>5</v>
       </c>
       <c r="I170">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J170" s="17" t="s">
         <v>2</v>
@@ -8390,7 +8392,7 @@
         <v>29</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D171" s="26" t="s">
         <v>2</v>
@@ -8401,14 +8403,14 @@
       <c r="F171" t="s">
         <v>2</v>
       </c>
-      <c r="G171" s="16" t="s">
+      <c r="G171" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H171" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I171">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J171" s="17" t="s">
         <v>2</v>
@@ -8436,7 +8438,7 @@
         <v>29</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D172" s="26" t="s">
         <v>2</v>
@@ -8454,7 +8456,7 @@
         <v>5</v>
       </c>
       <c r="I172">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="J172" s="17" t="s">
         <v>2</v>
@@ -8482,7 +8484,7 @@
         <v>29</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D173" s="26" t="s">
         <v>2</v>
@@ -8500,7 +8502,7 @@
         <v>5</v>
       </c>
       <c r="I173">
-        <v>4.3</v>
+        <v>73</v>
       </c>
       <c r="J173" s="17" t="s">
         <v>2</v>
@@ -8546,7 +8548,7 @@
         <v>5</v>
       </c>
       <c r="I174">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="J174" s="17" t="s">
         <v>2</v>
@@ -8574,7 +8576,7 @@
         <v>29</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D175" s="26" t="s">
         <v>2</v>
@@ -8592,7 +8594,7 @@
         <v>5</v>
       </c>
       <c r="I175">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="J175" s="17" t="s">
         <v>2</v>
@@ -8620,7 +8622,7 @@
         <v>29</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D176" s="26" t="s">
         <v>2</v>
@@ -8638,7 +8640,7 @@
         <v>5</v>
       </c>
       <c r="I176">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J176" s="17" t="s">
         <v>2</v>
@@ -8666,7 +8668,7 @@
         <v>29</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D177" s="26" t="s">
         <v>2</v>
@@ -8684,7 +8686,7 @@
         <v>5</v>
       </c>
       <c r="I177">
-        <v>24</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J177" s="17" t="s">
         <v>2</v>
@@ -8712,7 +8714,7 @@
         <v>29</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D178" s="26" t="s">
         <v>2</v>
@@ -8730,7 +8732,7 @@
         <v>5</v>
       </c>
       <c r="I178">
-        <v>2.2999999999999998</v>
+        <v>26</v>
       </c>
       <c r="J178" s="17" t="s">
         <v>2</v>
@@ -8758,7 +8760,7 @@
         <v>29</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D179" s="26" t="s">
         <v>2</v>
@@ -8776,7 +8778,7 @@
         <v>5</v>
       </c>
       <c r="I179">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J179" s="17" t="s">
         <v>2</v>
@@ -8804,7 +8806,7 @@
         <v>29</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D180" s="26" t="s">
         <v>2</v>
@@ -8822,7 +8824,7 @@
         <v>5</v>
       </c>
       <c r="I180">
-        <v>17</v>
+        <v>1.8</v>
       </c>
       <c r="J180" s="17" t="s">
         <v>2</v>
@@ -8850,7 +8852,7 @@
         <v>29</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D181" s="26" t="s">
         <v>2</v>
@@ -8861,14 +8863,14 @@
       <c r="F181" t="s">
         <v>2</v>
       </c>
-      <c r="G181" s="12" t="s">
+      <c r="G181" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H181" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I181">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="J181" s="17" t="s">
         <v>2</v>
@@ -8896,7 +8898,7 @@
         <v>29</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D182" s="26" t="s">
         <v>2</v>
@@ -8907,14 +8909,14 @@
       <c r="F182" t="s">
         <v>2</v>
       </c>
-      <c r="G182" s="16" t="s">
+      <c r="G182" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H182" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I182">
-        <v>0.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J182" s="17" t="s">
         <v>2</v>
@@ -8942,7 +8944,7 @@
         <v>29</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="D183" s="26" t="s">
         <v>2</v>
@@ -8953,14 +8955,14 @@
       <c r="F183" t="s">
         <v>2</v>
       </c>
-      <c r="G183" s="12" t="s">
+      <c r="G183" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H183" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I183">
-        <v>8.8000000000000007</v>
+        <v>0.8</v>
       </c>
       <c r="J183" s="17" t="s">
         <v>2</v>
@@ -8988,7 +8990,7 @@
         <v>29</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="D184" s="26" t="s">
         <v>2</v>
@@ -9006,7 +9008,7 @@
         <v>5</v>
       </c>
       <c r="I184">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J184" s="17" t="s">
         <v>2</v>
@@ -9034,7 +9036,7 @@
         <v>29</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="D185" s="26" t="s">
         <v>2</v>
@@ -9045,14 +9047,14 @@
       <c r="F185" t="s">
         <v>2</v>
       </c>
-      <c r="G185" s="16" t="s">
+      <c r="G185" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H185" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I185">
-        <v>0.5</v>
+        <v>14</v>
       </c>
       <c r="J185" s="17" t="s">
         <v>2</v>
@@ -9080,7 +9082,7 @@
         <v>29</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D186" s="26" t="s">
         <v>2</v>
@@ -9098,7 +9100,7 @@
         <v>5</v>
       </c>
       <c r="I186">
-        <v>14</v>
+        <v>1638</v>
       </c>
       <c r="J186" s="17" t="s">
         <v>2</v>
@@ -9126,7 +9128,7 @@
         <v>29</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D187" s="26" t="s">
         <v>2</v>
@@ -9144,7 +9146,7 @@
         <v>5</v>
       </c>
       <c r="I187">
-        <v>1638</v>
+        <v>0.8</v>
       </c>
       <c r="J187" s="17" t="s">
         <v>2</v>
@@ -9165,60 +9167,58 @@
       <c r="R187"/>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A188" s="26" t="s">
+      <c r="A188" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C188" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D188" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E188" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F188" t="s">
-        <v>2</v>
-      </c>
-      <c r="G188" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H188" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I188">
-        <v>0.8</v>
-      </c>
-      <c r="J188" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K188" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L188"/>
-      <c r="M188"/>
-      <c r="N188" s="17" t="s">
-        <v>2</v>
+      <c r="C188" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F188" s="20"/>
+      <c r="G188" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H188" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I188" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J188" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K188" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L188" s="20"/>
+      <c r="M188" s="20"/>
+      <c r="N188" s="20">
+        <v>266</v>
       </c>
       <c r="O188">
-        <v>28228479</v>
-      </c>
-      <c r="P188"/>
-      <c r="Q188"/>
-      <c r="R188"/>
+        <v>25266289</v>
+      </c>
+      <c r="P188" s="20"/>
+      <c r="Q188" s="20"/>
+      <c r="R188" s="20"/>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A189" s="18" t="s">
-        <v>4</v>
+      <c r="A189" s="18">
+        <v>3</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D189" s="18" t="s">
         <v>20</v>
@@ -9226,7 +9226,7 @@
       <c r="E189" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F189" s="20"/>
+      <c r="F189" s="23"/>
       <c r="G189" s="16" t="s">
         <v>30</v>
       </c>
@@ -9242,27 +9242,27 @@
       <c r="K189" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="L189" s="20"/>
-      <c r="M189" s="20"/>
+      <c r="L189" s="23"/>
+      <c r="M189" s="23"/>
       <c r="N189" s="20">
         <v>266</v>
       </c>
       <c r="O189">
         <v>25266289</v>
       </c>
-      <c r="P189" s="20"/>
-      <c r="Q189" s="20"/>
-      <c r="R189" s="20"/>
+      <c r="P189" s="23"/>
+      <c r="Q189" s="23"/>
+      <c r="R189" s="23"/>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A190" s="18">
-        <v>3</v>
+      <c r="A190" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D190" s="18" t="s">
         <v>20</v>
@@ -9306,7 +9306,7 @@
         <v>29</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D191" s="18" t="s">
         <v>20</v>
@@ -9350,7 +9350,7 @@
         <v>29</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D192" s="18" t="s">
         <v>20</v>
@@ -9394,7 +9394,7 @@
         <v>29</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D193" s="18" t="s">
         <v>20</v>
@@ -9431,26 +9431,25 @@
       <c r="R193" s="23"/>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A194" s="18" t="s">
+      <c r="A194" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C194" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E194" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F194" s="23"/>
-      <c r="G194" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H194" s="17" t="s">
+      <c r="C194" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G194" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H194" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I194" s="20" t="s">
@@ -9462,17 +9461,12 @@
       <c r="K194" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="L194" s="23"/>
-      <c r="M194" s="23"/>
       <c r="N194" s="20">
         <v>266</v>
       </c>
       <c r="O194">
         <v>25266289</v>
       </c>
-      <c r="P194" s="23"/>
-      <c r="Q194" s="23"/>
-      <c r="R194" s="23"/>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" s="26" t="s">
@@ -9482,7 +9476,7 @@
         <v>29</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="D195" s="26" t="s">
         <v>21</v>
@@ -9520,14 +9514,15 @@
         <v>29</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D196" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F196"/>
       <c r="G196" s="12" t="s">
         <v>30</v>
       </c>
@@ -9543,12 +9538,17 @@
       <c r="K196" s="15" t="s">
         <v>93</v>
       </c>
+      <c r="L196"/>
+      <c r="M196"/>
       <c r="N196" s="20">
         <v>266</v>
       </c>
       <c r="O196">
         <v>25266289</v>
       </c>
+      <c r="P196"/>
+      <c r="Q196"/>
+      <c r="R196"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" s="26" t="s">
@@ -9558,7 +9558,7 @@
         <v>29</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D197" s="26" t="s">
         <v>20</v>
@@ -9566,7 +9566,6 @@
       <c r="E197" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F197"/>
       <c r="G197" s="12" t="s">
         <v>30</v>
       </c>
@@ -9582,17 +9581,12 @@
       <c r="K197" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="L197"/>
-      <c r="M197"/>
       <c r="N197" s="20">
         <v>266</v>
       </c>
       <c r="O197">
         <v>25266289</v>
       </c>
-      <c r="P197"/>
-      <c r="Q197"/>
-      <c r="R197"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" s="26" t="s">
@@ -9602,13 +9596,13 @@
         <v>29</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G198" s="12" t="s">
         <v>30</v>
@@ -9640,13 +9634,13 @@
         <v>29</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G199" s="12" t="s">
         <v>30</v>
@@ -9678,13 +9672,13 @@
         <v>29</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G200" s="12" t="s">
         <v>30</v>
@@ -9716,7 +9710,7 @@
         <v>29</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D201" s="26" t="s">
         <v>21</v>
@@ -9754,7 +9748,7 @@
         <v>29</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D202" s="26" t="s">
         <v>21</v>
@@ -9792,7 +9786,7 @@
         <v>29</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D203" s="26" t="s">
         <v>21</v>
@@ -9830,7 +9824,7 @@
         <v>29</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D204" s="26" t="s">
         <v>21</v>
@@ -9868,7 +9862,7 @@
         <v>29</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D205" s="26" t="s">
         <v>21</v>
@@ -9906,7 +9900,7 @@
         <v>29</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D206" s="26" t="s">
         <v>21</v>
@@ -9944,31 +9938,37 @@
         <v>29</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E207" s="26" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="F207" t="s">
+        <v>2</v>
       </c>
       <c r="G207" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I207" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J207" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="K207" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N207" s="20">
-        <v>266</v>
+        <v>5</v>
+      </c>
+      <c r="I207" s="1">
+        <v>95</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="O207">
         <v>25266289</v>
@@ -9982,7 +9982,7 @@
         <v>29</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D208" s="26" t="s">
         <v>2</v>
@@ -10000,7 +10000,7 @@
         <v>5</v>
       </c>
       <c r="I208" s="1">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>2</v>
@@ -10026,7 +10026,7 @@
         <v>29</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D209" s="26" t="s">
         <v>2</v>
@@ -10044,7 +10044,7 @@
         <v>5</v>
       </c>
       <c r="I209" s="1">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>2</v>
@@ -10070,7 +10070,7 @@
         <v>29</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D210" s="26" t="s">
         <v>2</v>
@@ -10088,7 +10088,7 @@
         <v>5</v>
       </c>
       <c r="I210" s="1">
-        <v>34</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>2</v>
@@ -10114,7 +10114,7 @@
         <v>29</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D211" s="26" t="s">
         <v>2</v>
@@ -10132,7 +10132,7 @@
         <v>5</v>
       </c>
       <c r="I211" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>2</v>
@@ -10158,7 +10158,7 @@
         <v>29</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="D212" s="26" t="s">
         <v>2</v>
@@ -10176,7 +10176,7 @@
         <v>5</v>
       </c>
       <c r="I212" s="1">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>2</v>
@@ -10202,7 +10202,7 @@
         <v>29</v>
       </c>
       <c r="C213" s="26" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="D213" s="26" t="s">
         <v>2</v>
@@ -10220,7 +10220,7 @@
         <v>5</v>
       </c>
       <c r="I213" s="1">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>2</v>
@@ -10246,7 +10246,7 @@
         <v>29</v>
       </c>
       <c r="C214" s="26" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D214" s="26" t="s">
         <v>2</v>
@@ -10264,7 +10264,7 @@
         <v>5</v>
       </c>
       <c r="I214" s="1">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>2</v>
@@ -10290,7 +10290,7 @@
         <v>29</v>
       </c>
       <c r="C215" s="26" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D215" s="26" t="s">
         <v>2</v>
@@ -10334,7 +10334,7 @@
         <v>29</v>
       </c>
       <c r="C216" s="26" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D216" s="26" t="s">
         <v>2</v>
@@ -10352,7 +10352,7 @@
         <v>5</v>
       </c>
       <c r="I216" s="1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>2</v>
@@ -10378,7 +10378,7 @@
         <v>29</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D217" s="26" t="s">
         <v>2</v>
@@ -10396,7 +10396,7 @@
         <v>5</v>
       </c>
       <c r="I217" s="1">
-        <v>1.8</v>
+        <v>51</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>2</v>
@@ -10422,7 +10422,7 @@
         <v>29</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="D218" s="26" t="s">
         <v>2</v>
@@ -10440,7 +10440,7 @@
         <v>5</v>
       </c>
       <c r="I218" s="1">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>2</v>
@@ -10466,7 +10466,7 @@
         <v>29</v>
       </c>
       <c r="C219" s="26" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D219" s="26" t="s">
         <v>2</v>
@@ -10484,7 +10484,7 @@
         <v>5</v>
       </c>
       <c r="I219" s="1">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>2</v>
@@ -10504,13 +10504,13 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D220" s="26" t="s">
         <v>2</v>
@@ -10528,7 +10528,7 @@
         <v>5</v>
       </c>
       <c r="I220" s="1">
-        <v>1.7</v>
+        <v>208</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>2</v>
@@ -10554,7 +10554,7 @@
         <v>29</v>
       </c>
       <c r="C221" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D221" s="26" t="s">
         <v>2</v>
@@ -10572,7 +10572,7 @@
         <v>5</v>
       </c>
       <c r="I221" s="1">
-        <v>208</v>
+        <v>13.6</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>2</v>
@@ -10598,7 +10598,7 @@
         <v>29</v>
       </c>
       <c r="C222" s="26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D222" s="26" t="s">
         <v>2</v>
@@ -10616,7 +10616,7 @@
         <v>5</v>
       </c>
       <c r="I222" s="1">
-        <v>13.6</v>
+        <v>3.2</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>2</v>
@@ -10642,7 +10642,7 @@
         <v>29</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D223" s="26" t="s">
         <v>2</v>
@@ -10660,7 +10660,7 @@
         <v>5</v>
       </c>
       <c r="I223" s="1">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>2</v>
@@ -10686,7 +10686,7 @@
         <v>29</v>
       </c>
       <c r="C224" s="26" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D224" s="26" t="s">
         <v>2</v>
@@ -10704,7 +10704,7 @@
         <v>5</v>
       </c>
       <c r="I224" s="1">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>2</v>
@@ -10730,7 +10730,7 @@
         <v>29</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D225" s="26" t="s">
         <v>2</v>
@@ -10748,7 +10748,7 @@
         <v>5</v>
       </c>
       <c r="I225" s="1">
-        <v>120</v>
+        <v>2.6</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>2</v>
@@ -10774,7 +10774,7 @@
         <v>29</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D226" s="26" t="s">
         <v>2</v>
@@ -10792,7 +10792,7 @@
         <v>5</v>
       </c>
       <c r="I226" s="1">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>2</v>
@@ -10818,7 +10818,7 @@
         <v>29</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D227" s="26" t="s">
         <v>2</v>
@@ -10836,7 +10836,7 @@
         <v>5</v>
       </c>
       <c r="I227" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>2</v>
@@ -10862,7 +10862,7 @@
         <v>29</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="D228" s="26" t="s">
         <v>2</v>
@@ -10880,7 +10880,7 @@
         <v>5</v>
       </c>
       <c r="I228" s="1">
-        <v>28</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>2</v>
@@ -10906,7 +10906,7 @@
         <v>29</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D229" s="26" t="s">
         <v>2</v>
@@ -10924,7 +10924,7 @@
         <v>5</v>
       </c>
       <c r="I229" s="1">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>2</v>
@@ -10950,7 +10950,7 @@
         <v>29</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D230" s="26" t="s">
         <v>2</v>
@@ -10968,7 +10968,7 @@
         <v>5</v>
       </c>
       <c r="I230" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>2</v>
@@ -10994,7 +10994,7 @@
         <v>29</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D231" s="26" t="s">
         <v>2</v>
@@ -11012,7 +11012,7 @@
         <v>5</v>
       </c>
       <c r="I231" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>2</v>
@@ -11038,7 +11038,7 @@
         <v>29</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D232" s="26" t="s">
         <v>2</v>
@@ -11056,7 +11056,7 @@
         <v>5</v>
       </c>
       <c r="I232" s="1">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>2</v>
@@ -11082,7 +11082,7 @@
         <v>29</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D233" s="26" t="s">
         <v>2</v>
@@ -11100,7 +11100,7 @@
         <v>5</v>
       </c>
       <c r="I233" s="1">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>2</v>
@@ -11115,50 +11115,6 @@
         <v>2</v>
       </c>
       <c r="O233">
-        <v>25266289</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A234" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C234" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D234" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E234" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F234" t="s">
-        <v>2</v>
-      </c>
-      <c r="G234" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H234" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I234" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="J234" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K234" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M234" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O234">
         <v>25266289</v>
       </c>
     </row>
